--- a/TestFiles/sample23/words/word_1.xlsx
+++ b/TestFiles/sample23/words/word_1.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3761998000000002</v>
+        <v>2.8761998</v>
       </c>
       <c r="B2">
-        <v>0.4719688</v>
+        <v>2.9719688</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.5898801000000002</v>
+        <v>3.0898801</v>
       </c>
       <c r="B3">
-        <v>0.6886155999999994</v>
+        <v>3.188615599999999</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8005260999999999</v>
+        <v>3.3005261</v>
       </c>
       <c r="B4">
-        <v>0.9001479999999997</v>
+        <v>3.400148</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.0004003</v>
+        <v>3.5004003</v>
       </c>
       <c r="B5">
-        <v>1.1001895</v>
+        <v>3.6001895</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
